--- a/coordenadas autodromo.xlsx
+++ b/coordenadas autodromo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elchi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elchi\Desktop\programacion\Python\F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D001CC-43A0-42A2-B7A0-5B758D72E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1904CEC1-8303-4974-87EC-32D85A3F7A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4845" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{B849C1EF-5BD0-4E9A-BBE2-BF88FD870208}"/>
+    <workbookView xWindow="14295" yWindow="7965" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{B849C1EF-5BD0-4E9A-BBE2-BF88FD870208}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>recta</t>
+  </si>
+  <si>
+    <t>curva</t>
   </si>
 </sst>
 </file>
@@ -9975,10 +9981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9AB454-6F43-457B-9974-E2CF1EB09CAF}">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12211,7 +12217,7 @@
         <v>-996.43330000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -12231,7 +12237,7 @@
         <v>-994.65359999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -12251,7 +12257,7 @@
         <v>-992.87400000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>-971.44129999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -12291,7 +12297,7 @@
         <v>-950.00850000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>-928.57579999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -12331,7 +12337,7 @@
         <v>-925.28189999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -12351,7 +12357,7 @@
         <v>-921.98800000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -12371,7 +12377,7 @@
         <v>-918.69410000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v>-916.11919999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>-913.54430000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>-910.96939999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>-901.94349999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>-892.91759999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>-883.89170000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -12510,8 +12516,11 @@
       <c r="F127">
         <v>-880.8175</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -12530,8 +12539,11 @@
       <c r="F128">
         <v>-877.74329999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -12550,8 +12562,11 @@
       <c r="F129">
         <v>-874.66909999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -12570,8 +12585,11 @@
       <c r="F130">
         <v>-871.77359999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -12590,8 +12608,11 @@
       <c r="F131">
         <v>-868.87810000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -12610,8 +12631,11 @@
       <c r="F132">
         <v>-865.98260000000005</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -12630,8 +12654,11 @@
       <c r="F133">
         <v>-831.3546</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -12650,8 +12677,11 @@
       <c r="F134">
         <v>-796.72659999999996</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -12670,8 +12700,11 @@
       <c r="F135">
         <v>-762.09860000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -12690,8 +12723,11 @@
       <c r="F136">
         <v>-697.12559999999996</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -12710,8 +12746,11 @@
       <c r="F137">
         <v>-632.15250000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -12730,8 +12769,11 @@
       <c r="F138">
         <v>-567.17939999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -12750,8 +12792,11 @@
       <c r="F139">
         <v>-520.80949999999996</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -12770,8 +12815,11 @@
       <c r="F140">
         <v>-474.43959999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -12790,8 +12838,11 @@
       <c r="F141">
         <v>-428.06959999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -12810,8 +12861,11 @@
       <c r="F142">
         <v>-423.14100000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -12830,8 +12884,11 @@
       <c r="F143">
         <v>-418.21249999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -12850,8 +12907,11 @@
       <c r="F144">
         <v>-413.28390000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -12870,8 +12930,11 @@
       <c r="F145">
         <v>-408.28129999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -12890,8 +12953,11 @@
       <c r="F146">
         <v>-403.27870000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -12910,8 +12976,11 @@
       <c r="F147">
         <v>-398.27609999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -12930,8 +12999,11 @@
       <c r="F148">
         <v>-388.27800000000002</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -12950,8 +13022,11 @@
       <c r="F149">
         <v>-378.27980000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -12970,8 +13045,11 @@
       <c r="F150">
         <v>-368.28160000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -12990,8 +13068,11 @@
       <c r="F151">
         <v>-359.78809999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -13010,8 +13091,11 @@
       <c r="F152">
         <v>-351.29450000000003</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -13030,8 +13114,11 @@
       <c r="F153">
         <v>-342.80090000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -13050,8 +13137,11 @@
       <c r="F154">
         <v>-330.8374</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -13070,8 +13160,11 @@
       <c r="F155">
         <v>-318.87389999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -13090,8 +13183,11 @@
       <c r="F156">
         <v>-306.91039999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -13110,8 +13206,11 @@
       <c r="F157">
         <v>-301.68799999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -13130,8 +13229,11 @@
       <c r="F158">
         <v>-296.46550000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -13150,8 +13252,11 @@
       <c r="F159">
         <v>-291.24310000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -13170,8 +13275,11 @@
       <c r="F160">
         <v>-286.91860000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -13190,8 +13298,11 @@
       <c r="F161">
         <v>-282.59410000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -13210,8 +13321,11 @@
       <c r="F162">
         <v>-278.26960000000003</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -13230,8 +13344,11 @@
       <c r="F163">
         <v>-274.24770000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -13250,8 +13367,11 @@
       <c r="F164">
         <v>-270.22579999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -13270,8 +13390,11 @@
       <c r="F165">
         <v>-266.20389999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -13290,8 +13413,11 @@
       <c r="F166">
         <v>-262.28609999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -13310,8 +13436,11 @@
       <c r="F167">
         <v>-258.36829999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -13330,8 +13459,11 @@
       <c r="F168">
         <v>-254.45050000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -13350,8 +13482,11 @@
       <c r="F169">
         <v>-246.45079999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -13370,8 +13505,11 @@
       <c r="F170">
         <v>-238.4511</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -13390,8 +13528,11 @@
       <c r="F171">
         <v>-230.45150000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -13410,8 +13551,11 @@
       <c r="F172">
         <v>-216.2011</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -13430,8 +13574,11 @@
       <c r="F173">
         <v>-201.95079999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -13450,136 +13597,187 @@
       <c r="F174">
         <v>-187.7004</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>1306.3993</v>
       </c>
       <c r="F175">
         <v>-187.7004</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>1305.2058999999999</v>
       </c>
       <c r="F176">
         <v>-182.1507</v>
       </c>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>1304.0125</v>
       </c>
       <c r="F177">
         <v>-176.601</v>
       </c>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>1302.819</v>
       </c>
       <c r="F178">
         <v>-171.0513</v>
       </c>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>1283.1514</v>
       </c>
       <c r="F179">
         <v>-166.95849999999999</v>
       </c>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>1263.4837</v>
       </c>
       <c r="F180">
         <v>-162.8657</v>
       </c>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>1243.816</v>
       </c>
       <c r="F181">
         <v>-158.77279999999999</v>
       </c>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>1079.9593</v>
       </c>
       <c r="F182">
         <v>-136.12</v>
       </c>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>916.10260000000005</v>
       </c>
       <c r="F183">
         <v>-113.46720000000001</v>
       </c>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>752.24590000000001</v>
       </c>
       <c r="F184">
         <v>-90.814400000000006</v>
       </c>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>645.47469999999998</v>
       </c>
       <c r="F185">
         <v>-79.470500000000001</v>
       </c>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>538.70339999999999</v>
       </c>
       <c r="F186">
         <v>-68.126499999999993</v>
       </c>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>431.93220000000002</v>
       </c>
       <c r="F187">
         <v>-56.782600000000002</v>
       </c>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>287.95479999999998</v>
       </c>
       <c r="F188">
         <v>-37.854999999999997</v>
       </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>143.97739999999999</v>
       </c>
       <c r="F189">
         <v>-18.927499999999998</v>
       </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>0</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>-7.5636999999999999</v>
       </c>
@@ -13587,7 +13785,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>-15.1274</v>
       </c>

--- a/coordenadas autodromo.xlsx
+++ b/coordenadas autodromo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elchi\Desktop\programacion\Python\F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1904CEC1-8303-4974-87EC-32D85A3F7A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917AB543-45A6-40B5-B93B-E3999528987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="7965" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{B849C1EF-5BD0-4E9A-BBE2-BF88FD870208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B849C1EF-5BD0-4E9A-BBE2-BF88FD870208}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>curva</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Curva</t>
+  </si>
+  <si>
+    <t>Helper_id</t>
   </si>
 </sst>
 </file>
@@ -9981,4948 +9990,4736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9AB454-6F43-457B-9974-E2CF1EB09CAF}">
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>143.97739999999999</v>
+      </c>
+      <c r="B3">
+        <v>-18.927499999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>287.95479999999998</v>
+      </c>
+      <c r="B4">
+        <v>-37.854999999999997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>431.93220000000002</v>
+      </c>
+      <c r="B5">
+        <v>-56.782600000000002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>538.70339999999999</v>
+      </c>
+      <c r="B6">
+        <v>-68.126499999999993</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>645.47469999999998</v>
+      </c>
+      <c r="B7">
+        <v>-79.470500000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>752.24590000000001</v>
+      </c>
+      <c r="B8">
+        <v>-90.814400000000006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>916.10260000000005</v>
+      </c>
+      <c r="B9">
+        <v>-113.46720000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1079.9593</v>
+      </c>
+      <c r="B10">
+        <v>-136.12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1243.816</v>
+      </c>
+      <c r="B11">
+        <v>-158.77279999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1263.4837</v>
+      </c>
+      <c r="B12">
+        <v>-162.8657</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1283.1514</v>
+      </c>
+      <c r="B13">
+        <v>-166.95849999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1302.819</v>
+      </c>
+      <c r="B14">
+        <v>-171.0513</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1304.0125</v>
+      </c>
+      <c r="B15">
+        <v>-176.601</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1305.2058999999999</v>
+      </c>
+      <c r="B16">
+        <v>-182.1507</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1306.3993</v>
+      </c>
+      <c r="B17">
+        <v>-187.7004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1306.3993</v>
+      </c>
+      <c r="B18">
+        <v>-187.7004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1304.6501000000001</v>
+      </c>
+      <c r="B19">
+        <v>-201.95079999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1302.9007999999999</v>
+      </c>
+      <c r="B20">
+        <v>-216.2011</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1301.1514999999999</v>
+      </c>
+      <c r="B21">
+        <v>-230.45150000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1301.4940999999999</v>
+      </c>
+      <c r="B22">
+        <v>-238.4511</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1301.8367000000001</v>
+      </c>
+      <c r="B23">
+        <v>-246.45079999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1302.1793</v>
+      </c>
+      <c r="B24">
+        <v>-254.45050000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1305.8334</v>
+      </c>
+      <c r="B25">
+        <v>-258.36829999999998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1309.4875999999999</v>
+      </c>
+      <c r="B26">
+        <v>-262.28609999999998</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1313.1416999999999</v>
+      </c>
+      <c r="B27">
+        <v>-266.20389999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1321.9532999999999</v>
+      </c>
+      <c r="B28">
+        <v>-270.22579999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1330.7647999999999</v>
+      </c>
+      <c r="B29">
+        <v>-274.24770000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1339.5762999999999</v>
+      </c>
+      <c r="B30">
+        <v>-278.26960000000003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1341.249</v>
+      </c>
+      <c r="B31">
+        <v>-282.59410000000003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1342.9217000000001</v>
+      </c>
+      <c r="B32">
+        <v>-286.91860000000003</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1344.5944</v>
+      </c>
+      <c r="B33">
+        <v>-291.24310000000003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1344.2683</v>
+      </c>
+      <c r="B34">
+        <v>-296.46550000000002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1343.9421</v>
+      </c>
+      <c r="B35">
+        <v>-301.68799999999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1343.616</v>
+      </c>
+      <c r="B36">
+        <v>-306.91039999999998</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1341.8055999999999</v>
+      </c>
+      <c r="B37">
+        <v>-318.87389999999999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1339.9951000000001</v>
+      </c>
+      <c r="B38">
+        <v>-330.8374</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1338.1847</v>
+      </c>
+      <c r="B39">
+        <v>-342.80090000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1335.2405000000001</v>
+      </c>
+      <c r="B40">
+        <v>-351.29450000000003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1332.2963</v>
+      </c>
+      <c r="B41">
+        <v>-359.78809999999999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1329.3522</v>
+      </c>
+      <c r="B42">
+        <v>-368.28160000000003</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1325.5820000000001</v>
+      </c>
+      <c r="B43">
+        <v>-378.27980000000002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1321.8118999999999</v>
+      </c>
+      <c r="B44">
+        <v>-388.27800000000002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1318.0417</v>
+      </c>
+      <c r="B45">
+        <v>-398.27609999999999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1315.8707999999999</v>
+      </c>
+      <c r="B46">
+        <v>-403.27870000000001</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1313.6999000000001</v>
+      </c>
+      <c r="B47">
+        <v>-408.28129999999999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1311.529</v>
+      </c>
+      <c r="B48">
+        <v>-413.28390000000002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1308.7766999999999</v>
+      </c>
+      <c r="B49">
+        <v>-418.21249999999998</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1306.0244</v>
+      </c>
+      <c r="B50">
+        <v>-423.14100000000002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1303.2720999999999</v>
+      </c>
+      <c r="B51">
+        <v>-428.06959999999998</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1273.9502</v>
+      </c>
+      <c r="B52">
+        <v>-474.43959999999998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1244.6284000000001</v>
+      </c>
+      <c r="B53">
+        <v>-520.80949999999996</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1215.3064999999999</v>
+      </c>
+      <c r="B54">
+        <v>-567.17939999999999</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1173.3803</v>
+      </c>
+      <c r="B55">
+        <v>-632.15250000000003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1131.454</v>
+      </c>
+      <c r="B56">
+        <v>-697.12559999999996</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1089.5278000000001</v>
+      </c>
+      <c r="B57">
+        <v>-762.09860000000003</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1065.4195999999999</v>
+      </c>
+      <c r="B58">
+        <v>-796.72659999999996</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1041.3114</v>
+      </c>
+      <c r="B59">
+        <v>-831.3546</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1017.2032</v>
+      </c>
+      <c r="B60">
+        <v>-865.98260000000005</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1016.498</v>
+      </c>
+      <c r="B61">
+        <v>-868.87810000000002</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1015.7927</v>
+      </c>
+      <c r="B62">
+        <v>-871.77359999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1015.0875</v>
+      </c>
+      <c r="B63">
+        <v>-874.66909999999996</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1016.5817</v>
+      </c>
+      <c r="B64">
+        <v>-877.74329999999998</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1018.0759</v>
+      </c>
+      <c r="B65">
+        <v>-880.8175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>289</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1019.57</v>
+      </c>
+      <c r="B66">
+        <v>-883.89170000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1035.2343000000001</v>
+      </c>
+      <c r="B67">
+        <v>-892.91759999999999</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1050.8985</v>
+      </c>
+      <c r="B68">
+        <v>-901.94349999999997</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>166</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1066.5626999999999</v>
+      </c>
+      <c r="B69">
+        <v>-910.96939999999995</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1068.1279</v>
+      </c>
+      <c r="B70">
+        <v>-913.54430000000002</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1069.6931</v>
+      </c>
+      <c r="B71">
+        <v>-916.11919999999998</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1071.2582</v>
+      </c>
+      <c r="B72">
+        <v>-918.69410000000005</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1070.3286000000001</v>
+      </c>
+      <c r="B73">
+        <v>-921.98800000000006</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1069.3989999999999</v>
+      </c>
+      <c r="B74">
+        <v>-925.28189999999995</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1068.4694</v>
+      </c>
+      <c r="B75">
+        <v>-928.57579999999996</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1038.9653000000001</v>
+      </c>
+      <c r="B76">
+        <v>-950.00850000000003</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>83</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1009.4611</v>
+      </c>
+      <c r="B77">
+        <v>-971.44129999999996</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>979.95699999999999</v>
+      </c>
+      <c r="B78">
+        <v>-992.87400000000002</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>974.91459999999995</v>
+      </c>
+      <c r="B79">
+        <v>-994.65359999999998</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>969.87220000000002</v>
+      </c>
+      <c r="B80">
+        <v>-996.43330000000003</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>964.82979999999998</v>
+      </c>
+      <c r="B81">
+        <v>-998.21289999999999</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>958.00059999999996</v>
+      </c>
+      <c r="B82">
+        <v>-995.37249999999995</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>951.17150000000004</v>
+      </c>
+      <c r="B83">
+        <v>-992.53210000000001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>944.34230000000002</v>
+      </c>
+      <c r="B84">
+        <v>-989.69169999999997</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>942.56119999999999</v>
+      </c>
+      <c r="B85">
+        <v>-985.87009999999998</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>940.78020000000004</v>
+      </c>
+      <c r="B86">
+        <v>-982.04849999999999</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>938.99919999999997</v>
+      </c>
+      <c r="B87">
+        <v>-978.2269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>943.29039999999998</v>
+      </c>
+      <c r="B88">
+        <v>-947.31299999999999</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>947.58169999999996</v>
+      </c>
+      <c r="B89">
+        <v>-916.39919999999995</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>951.87300000000005</v>
+      </c>
+      <c r="B90">
+        <v>-885.48530000000005</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>957.14269999999999</v>
+      </c>
+      <c r="B91">
+        <v>-848.6739</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>962.41229999999996</v>
+      </c>
+      <c r="B92">
+        <v>-811.86239999999998</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>967.68200000000002</v>
+      </c>
+      <c r="B93">
+        <v>-775.05089999999996</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>971.50559999999996</v>
+      </c>
+      <c r="B94">
+        <v>-746.09050000000002</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>90</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>975.32920000000001</v>
+      </c>
+      <c r="B95">
+        <v>-717.13009999999997</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>979.15290000000005</v>
+      </c>
+      <c r="B96">
+        <v>-688.16980000000001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>978.75829999999996</v>
+      </c>
+      <c r="B97">
+        <v>-686.25450000000001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>978.36379999999997</v>
+      </c>
+      <c r="B98">
+        <v>-684.33920000000001</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>977.96929999999998</v>
+      </c>
+      <c r="B99">
+        <v>-682.4239</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>976.96360000000004</v>
+      </c>
+      <c r="B100">
+        <v>-680.34979999999996</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>975.9579</v>
+      </c>
+      <c r="B101">
+        <v>-678.2758</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>974.95219999999995</v>
+      </c>
+      <c r="B102">
+        <v>-676.20169999999996</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>973.79679999999996</v>
+      </c>
+      <c r="B103">
+        <v>-674.32719999999995</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>972.64149999999995</v>
+      </c>
+      <c r="B104">
+        <v>-672.45259999999996</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>971.48609999999996</v>
+      </c>
+      <c r="B105">
+        <v>-670.57809999999995</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>970.26409999999998</v>
+      </c>
+      <c r="B106">
+        <v>-669.35329999999999</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>181</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>969.04219999999998</v>
+      </c>
+      <c r="B107">
+        <v>-668.12850000000003</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>967.8202</v>
+      </c>
+      <c r="B108">
+        <v>-666.90369999999996</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>965.96370000000002</v>
+      </c>
+      <c r="B109">
+        <v>-665.27319999999997</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>964.10709999999995</v>
+      </c>
+      <c r="B110">
+        <v>-663.64279999999997</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>962.25059999999996</v>
+      </c>
+      <c r="B111">
+        <v>-662.01229999999998</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>959.09990000000005</v>
+      </c>
+      <c r="B112">
+        <v>-660.10530000000006</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>955.94929999999999</v>
+      </c>
+      <c r="B113">
+        <v>-658.19820000000004</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>952.79859999999996</v>
+      </c>
+      <c r="B114">
+        <v>-656.2912</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>952.76969999999994</v>
+      </c>
+      <c r="B115">
+        <v>-656.32470000000001</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>952.74069999999995</v>
+      </c>
+      <c r="B116">
+        <v>-656.35829999999999</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>952.71180000000004</v>
+      </c>
+      <c r="B117">
+        <v>-656.39189999999996</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>941.12720000000002</v>
+      </c>
+      <c r="B118">
+        <v>-650.18600000000004</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>929.54259999999999</v>
+      </c>
+      <c r="B119">
+        <v>-643.98019999999997</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>917.95809999999994</v>
+      </c>
+      <c r="B120">
+        <v>-637.77430000000004</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>913.02499999999998</v>
+      </c>
+      <c r="B121">
+        <v>-635.13170000000002</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>908.09199999999998</v>
+      </c>
+      <c r="B122">
+        <v>-632.48910000000001</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>903.15890000000002</v>
+      </c>
+      <c r="B123">
+        <v>-629.84640000000002</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>880.03009999999995</v>
+      </c>
+      <c r="B124">
+        <v>-620.89350000000002</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>855.85979999999995</v>
+      </c>
+      <c r="B125">
+        <v>-623.66409999999996</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>835.74649999999997</v>
+      </c>
+      <c r="B126">
+        <v>-637.35130000000004</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>827.27</v>
+      </c>
+      <c r="B127">
+        <v>-645.71849999999995</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>820.03189999999995</v>
+      </c>
+      <c r="B128">
+        <v>-652.96590000000003</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>801.7799</v>
+      </c>
+      <c r="B129">
+        <v>-670.92819999999995</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>791.11929999999995</v>
+      </c>
+      <c r="B130">
+        <v>-681.10140000000001</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>776.75670000000002</v>
+      </c>
+      <c r="B131">
+        <v>-693.96169999999995</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>772.30589999999995</v>
+      </c>
+      <c r="B132">
+        <v>-697.80050000000006</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>763.95100000000002</v>
+      </c>
+      <c r="B133">
+        <v>-704.63630000000001</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>760.05039999999997</v>
+      </c>
+      <c r="B134">
+        <v>-707.63099999999997</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>755.04129999999998</v>
+      </c>
+      <c r="B135">
+        <v>-711.13300000000004</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>753.66930000000002</v>
+      </c>
+      <c r="B136">
+        <v>-712.05029999999999</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>751.03030000000001</v>
+      </c>
+      <c r="B137">
+        <v>-713.72119999999995</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>749.76130000000001</v>
+      </c>
+      <c r="B138">
+        <v>-714.47630000000004</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>747.34349999999995</v>
+      </c>
+      <c r="B139">
+        <v>-715.81010000000003</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>746.19399999999996</v>
+      </c>
+      <c r="B140">
+        <v>-716.38850000000002</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>743.99760000000003</v>
+      </c>
+      <c r="B141">
+        <v>-717.37249999999995</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>742.97370000000001</v>
+      </c>
+      <c r="B142">
+        <v>-717.76769999999999</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>741.01639999999998</v>
+      </c>
+      <c r="B143">
+        <v>-718.37980000000005</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>740.11479999999995</v>
+      </c>
+      <c r="B144">
+        <v>-718.58720000000005</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>738.90239999999994</v>
+      </c>
+      <c r="B145">
+        <v>-718.74509999999998</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>738.56039999999996</v>
+      </c>
+      <c r="B146">
+        <v>-718.77359999999999</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>737.81330000000003</v>
+      </c>
+      <c r="B147">
+        <v>-718.79780000000005</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>737.41010000000006</v>
+      </c>
+      <c r="B148">
+        <v>-718.78309999999999</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>736.76250000000005</v>
+      </c>
+      <c r="B149">
+        <v>-718.70920000000001</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>736.50580000000002</v>
+      </c>
+      <c r="B150">
+        <v>-718.66480000000001</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>736.01080000000002</v>
+      </c>
+      <c r="B151">
+        <v>-718.54729999999995</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>735.77549999999997</v>
+      </c>
+      <c r="B152">
+        <v>-718.47519999999997</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>122</v>
+      </c>
+      <c r="E152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>735.404</v>
+      </c>
+      <c r="B153">
+        <v>-718.3329</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>303</v>
+      </c>
+      <c r="E153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>735.26700000000005</v>
+      </c>
+      <c r="B154">
+        <v>-718.27380000000005</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>735.00419999999997</v>
+      </c>
+      <c r="B155">
+        <v>-718.14660000000003</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>734.88130000000001</v>
+      </c>
+      <c r="B156">
+        <v>-718.08029999999997</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>734.6123</v>
+      </c>
+      <c r="B157">
+        <v>-717.91930000000002</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>734.4674</v>
+      </c>
+      <c r="B158">
+        <v>-717.82209999999998</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>734.21579999999994</v>
+      </c>
+      <c r="B159">
+        <v>-717.63340000000005</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>734.10680000000002</v>
+      </c>
+      <c r="B160">
+        <v>-717.54399999999998</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>153</v>
+      </c>
+      <c r="E160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>733.90419999999995</v>
+      </c>
+      <c r="B161">
+        <v>-717.36279999999999</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>733.80119999999999</v>
+      </c>
+      <c r="B162">
+        <v>-717.2627</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>733.57</v>
+      </c>
+      <c r="B163">
+        <v>-717.01790000000005</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>733.44280000000003</v>
+      </c>
+      <c r="B164">
+        <v>-716.86760000000004</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>140</v>
+      </c>
+      <c r="E164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>733.20650000000001</v>
+      </c>
+      <c r="B165">
+        <v>-716.55640000000005</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>733.09490000000005</v>
+      </c>
+      <c r="B166">
+        <v>-716.39239999999995</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>732.77980000000002</v>
+      </c>
+      <c r="B167">
+        <v>-715.87630000000001</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>732.59379999999999</v>
+      </c>
+      <c r="B168">
+        <v>-715.49860000000001</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>732.32029999999997</v>
+      </c>
+      <c r="B169">
+        <v>-714.80269999999996</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>732.22</v>
+      </c>
+      <c r="B170">
+        <v>-714.50199999999995</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>732.04020000000003</v>
+      </c>
+      <c r="B171">
+        <v>-713.85929999999996</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>731.96220000000005</v>
+      </c>
+      <c r="B172">
+        <v>-713.52269999999999</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>731.82870000000003</v>
+      </c>
+      <c r="B173">
+        <v>-712.81590000000006</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>731.77229999999997</v>
+      </c>
+      <c r="B174">
+        <v>-712.44060000000002</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>731.66679999999997</v>
+      </c>
+      <c r="B175">
+        <v>-711.53420000000006</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>130</v>
+      </c>
+      <c r="E175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>731.6259</v>
+      </c>
+      <c r="B176">
+        <v>-710.98649999999998</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>731.57050000000004</v>
+      </c>
+      <c r="B177">
+        <v>-709.59519999999998</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>731.57410000000004</v>
+      </c>
+      <c r="B178">
+        <v>-708.73879999999997</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>731.64760000000001</v>
+      </c>
+      <c r="B179">
+        <v>-706.95529999999997</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>731.71420000000001</v>
+      </c>
+      <c r="B180">
+        <v>-706.03049999999996</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>731.96289999999999</v>
+      </c>
+      <c r="B181">
+        <v>-703.48500000000001</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>732.19370000000004</v>
+      </c>
+      <c r="B182">
+        <v>-701.78390000000002</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>733.80539999999996</v>
+      </c>
+      <c r="B183">
+        <v>-691.97799999999995</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>736.43010000000004</v>
+      </c>
+      <c r="B184">
+        <v>-681.82249999999999</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>742.47900000000004</v>
+      </c>
+      <c r="B185">
+        <v>-660.31079999999997</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>745.77970000000005</v>
+      </c>
+      <c r="B186">
+        <v>-649.2192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>752.27560000000005</v>
+      </c>
+      <c r="B187">
+        <v>-626.36659999999995</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>755.47090000000003</v>
+      </c>
+      <c r="B188">
+        <v>-614.60559999999998</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>759.16049999999996</v>
+      </c>
+      <c r="B189">
+        <v>-598.5557</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>760.12710000000004</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="B190">
         <v>-594.00779999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>759.16049999999996</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>-598.5557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>755.47090000000003</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>-614.60559999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>752.27560000000005</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-626.36659999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>745.77970000000005</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-649.2192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>742.47900000000004</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-660.31079999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>736.43010000000004</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-681.82249999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>733.80539999999996</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-691.97799999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>732.19370000000004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>-701.78390000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>731.96289999999999</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-703.48500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>731.71420000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-706.03049999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>731.64760000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>-706.95529999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>731.57410000000004</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>-708.73879999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>731.57050000000004</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>-709.59519999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>731.6259</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>-710.98649999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>731.66679999999997</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>-711.53420000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>731.77229999999997</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>-712.44060000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>731.82870000000003</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>-712.81590000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>731.96220000000005</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>-713.52269999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>732.04020000000003</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>-713.85929999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>732.22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>-714.50199999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>732.32029999999997</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>-714.80269999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>732.59379999999999</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>-715.49860000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>732.77980000000002</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>-715.87630000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>733.09490000000005</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>-716.39239999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>733.20650000000001</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>-716.55640000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>733.44280000000003</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>-716.86760000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>733.57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>-717.01790000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>733.80119999999999</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>-717.2627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>733.90419999999995</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>-717.36279999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>734.10680000000002</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>-717.54399999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>734.21579999999994</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>-717.63340000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>734.4674</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>-717.82209999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>734.6123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>-717.91930000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>734.88130000000001</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>-718.08029999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>735.00419999999997</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>-718.14660000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>735.26700000000005</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>-718.27380000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>735.404</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>-718.3329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>735.77549999999997</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>-718.47519999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>736.01080000000002</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>-718.54729999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>736.50580000000002</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>-718.66480000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>736.76250000000005</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>-718.70920000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>737.41010000000006</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>-718.78309999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>737.81330000000003</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>-718.79780000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>738.56039999999996</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>-718.77359999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>738.90239999999994</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>-718.74509999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>740.11479999999995</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>-718.58720000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>741.01639999999998</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>-718.37980000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>742.97370000000001</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>-717.76769999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>743.99760000000003</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>-717.37249999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>746.19399999999996</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>-716.38850000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>747.34349999999995</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>-715.81010000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>749.76130000000001</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>-714.47630000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>751.03030000000001</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>-713.72119999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>753.66930000000002</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>-712.05029999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>755.04129999999998</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>-711.13300000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>760.05039999999997</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>-707.63099999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>763.95100000000002</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>-704.63630000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>772.30589999999995</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>-697.80050000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>776.75670000000002</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>-693.96169999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>791.11929999999995</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>-681.10140000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>801.7799</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>-670.92819999999995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>820.03189999999995</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>-652.96590000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>827.27</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>-645.71849999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>835.74649999999997</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>-637.35130000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>855.85979999999995</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>-623.66409999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>880.03009999999995</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>-620.89350000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>903.15890000000002</v>
-      </c>
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>-629.84640000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>908.09199999999998</v>
-      </c>
-      <c r="D70" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>-632.48910000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>913.02499999999998</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>-635.13170000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>917.95809999999994</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>-637.77430000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>929.54259999999999</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>-643.98019999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>941.12720000000002</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>-650.18600000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>952.71180000000004</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>-656.39189999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>952.74069999999995</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>-656.35829999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>952.76969999999994</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>-656.32470000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>952.79859999999996</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>-656.2912</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>955.94929999999999</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>-658.19820000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>959.09990000000005</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>-660.10530000000006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>962.25059999999996</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>-662.01229999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>964.10709999999995</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>-663.64279999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>965.96370000000002</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>-665.27319999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>967.8202</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>-666.90369999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>969.04219999999998</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>-668.12850000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>970.26409999999998</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>-669.35329999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>971.48609999999996</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>-670.57809999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>972.64149999999995</v>
-      </c>
-      <c r="D88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>-672.45259999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>973.79679999999996</v>
-      </c>
-      <c r="D89" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>-674.32719999999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>974.95219999999995</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>-676.20169999999996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>975.9579</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>-678.2758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>976.96360000000004</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>-680.34979999999996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>977.96929999999998</v>
-      </c>
-      <c r="D93" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>-682.4239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>978.36379999999997</v>
-      </c>
-      <c r="D94" t="s">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>-684.33920000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>978.75829999999996</v>
-      </c>
-      <c r="D95" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>-686.25450000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>979.15290000000005</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>-688.16980000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>975.32920000000001</v>
-      </c>
-      <c r="D97" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>-717.13009999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>971.50559999999996</v>
-      </c>
-      <c r="D98" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>-746.09050000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>967.68200000000002</v>
-      </c>
-      <c r="D99" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>-775.05089999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>962.41229999999996</v>
-      </c>
-      <c r="D100" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>-811.86239999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>957.14269999999999</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>-848.6739</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>951.87300000000005</v>
-      </c>
-      <c r="D102" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>-885.48530000000005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>947.58169999999996</v>
-      </c>
-      <c r="D103" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>-916.39919999999995</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>943.29039999999998</v>
-      </c>
-      <c r="D104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>-947.31299999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>938.99919999999997</v>
-      </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>-978.2269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>940.78020000000004</v>
-      </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>-982.04849999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>942.56119999999999</v>
-      </c>
-      <c r="D107" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>-985.87009999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>944.34230000000002</v>
-      </c>
-      <c r="D108" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>-989.69169999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>951.17150000000004</v>
-      </c>
-      <c r="D109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>-992.53210000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>958.00059999999996</v>
-      </c>
-      <c r="D110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>-995.37249999999995</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>964.82979999999998</v>
-      </c>
-      <c r="D111" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>-998.21289999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>969.87220000000002</v>
-      </c>
-      <c r="D112" t="s">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>-996.43330000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>974.91459999999995</v>
-      </c>
-      <c r="D113" t="s">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113">
-        <v>-994.65359999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>979.95699999999999</v>
-      </c>
-      <c r="D114" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>-992.87400000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>1009.4611</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>-971.44129999999996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>1038.9653000000001</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116">
-        <v>-950.00850000000003</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>1068.4694</v>
-      </c>
-      <c r="D117" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>-928.57579999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>1069.3989999999999</v>
-      </c>
-      <c r="D118" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>-925.28189999999995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>1070.3286000000001</v>
-      </c>
-      <c r="D119" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>-921.98800000000006</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>1071.2582</v>
-      </c>
-      <c r="D120" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>-918.69410000000005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1069.6931</v>
-      </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>-916.11919999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>1068.1279</v>
-      </c>
-      <c r="D122" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>-913.54430000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1066.5626999999999</v>
-      </c>
-      <c r="D123" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>-910.96939999999995</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>1050.8985</v>
-      </c>
-      <c r="D124" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>-901.94349999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>1035.2343000000001</v>
-      </c>
-      <c r="D125" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>-892.91759999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>1019.57</v>
-      </c>
-      <c r="D126" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>-883.89170000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>1018.0759</v>
-      </c>
-      <c r="D127" t="s">
-        <v>2</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>-880.8175</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>1016.5817</v>
-      </c>
-      <c r="D128" t="s">
-        <v>2</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>-877.74329999999998</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>1015.0875</v>
-      </c>
-      <c r="D129" t="s">
-        <v>2</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>-874.66909999999996</v>
-      </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>1015.7927</v>
-      </c>
-      <c r="D130" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>-871.77359999999999</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>1016.498</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>-868.87810000000002</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>1017.2032</v>
-      </c>
-      <c r="D132" t="s">
-        <v>2</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>-865.98260000000005</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>1041.3114</v>
-      </c>
-      <c r="D133" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>-831.3546</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>764.06299999999999</v>
+      </c>
+      <c r="B191">
+        <v>-568.16229999999996</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>764.41269999999997</v>
+      </c>
+      <c r="B192">
+        <v>-561.78620000000001</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>764.47339999999997</v>
+      </c>
+      <c r="B193">
+        <v>-559.40440000000001</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>764.43150000000003</v>
+      </c>
+      <c r="B194">
+        <v>-554.79629999999997</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>764.32849999999996</v>
+      </c>
+      <c r="B195">
+        <v>-552.56719999999996</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>763.89409999999998</v>
+      </c>
+      <c r="B196">
+        <v>-547.77549999999997</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>763.51639999999998</v>
+      </c>
+      <c r="B197">
+        <v>-545.26220000000001</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>762.63639999999998</v>
+      </c>
+      <c r="B198">
+        <v>-541.36850000000004</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>762.2269</v>
+      </c>
+      <c r="B199">
+        <v>-539.90920000000006</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>761.16669999999999</v>
+      </c>
+      <c r="B200">
+        <v>-536.82380000000001</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>760.48040000000003</v>
+      </c>
+      <c r="B201">
+        <v>-535.22850000000005</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>223</v>
+      </c>
+      <c r="E201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>759.24559999999997</v>
+      </c>
+      <c r="B202">
+        <v>-532.93420000000003</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>758.7722</v>
+      </c>
+      <c r="B203">
+        <v>-532.15189999999996</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>757.75599999999997</v>
+      </c>
+      <c r="B204">
+        <v>-530.66110000000003</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>757.21609999999998</v>
+      </c>
+      <c r="B205">
+        <v>-529.95569999999998</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>756.22749999999996</v>
+      </c>
+      <c r="B206">
+        <v>-528.80999999999995</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>755.79949999999997</v>
+      </c>
+      <c r="B207">
+        <v>-528.35429999999997</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>754.9085</v>
+      </c>
+      <c r="B208">
+        <v>-527.4846</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>123</v>
+      </c>
+      <c r="E208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>754.44820000000004</v>
+      </c>
+      <c r="B209">
+        <v>-527.07259999999997</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>753.45579999999995</v>
+      </c>
+      <c r="B210">
+        <v>-526.2595</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>100</v>
+      </c>
+      <c r="E210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>752.91880000000003</v>
+      </c>
+      <c r="B211">
+        <v>-525.86059999999998</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>750.99710000000005</v>
+      </c>
+      <c r="B212">
+        <v>-524.56690000000003</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>749.49540000000002</v>
+      </c>
+      <c r="B213">
+        <v>-523.78060000000005</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>746.77850000000001</v>
+      </c>
+      <c r="B214">
+        <v>-522.66390000000001</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>88</v>
+      </c>
+      <c r="E214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>745.62199999999996</v>
+      </c>
+      <c r="B215">
+        <v>-522.26679999999999</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>743.20050000000003</v>
+      </c>
+      <c r="B216">
+        <v>-521.57320000000004</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>741.94309999999996</v>
+      </c>
+      <c r="B217">
+        <v>-521.27909999999997</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>738.89440000000002</v>
+      </c>
+      <c r="B218">
+        <v>-520.69719999999995</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>737.0634</v>
+      </c>
+      <c r="B219">
+        <v>-520.44629999999995</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>162</v>
+      </c>
+      <c r="E219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>733.26660000000004</v>
+      </c>
+      <c r="B220">
+        <v>-520.08479999999997</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>731.29459999999995</v>
+      </c>
+      <c r="B221">
+        <v>-519.97349999999994</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>725.89390000000003</v>
+      </c>
+      <c r="B222">
+        <v>-519.83079999999995</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>722.36120000000005</v>
+      </c>
+      <c r="B223">
+        <v>-519.89769999999999</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>714.23050000000001</v>
+      </c>
+      <c r="B224">
+        <v>-520.26509999999996</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>709.58349999999996</v>
+      </c>
+      <c r="B225">
+        <v>-520.61540000000002</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>696.53909999999996</v>
+      </c>
+      <c r="B226">
+        <v>-521.68589999999995</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>687.95950000000005</v>
+      </c>
+      <c r="B227">
+        <v>-522.48919999999998</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>676.803</v>
+      </c>
+      <c r="B228">
+        <v>-522.94849999999997</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>674.04520000000002</v>
+      </c>
+      <c r="B229">
+        <v>-523.01210000000003</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>668.60659999999996</v>
+      </c>
+      <c r="B230">
+        <v>-522.99609999999996</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>665.92729999999995</v>
+      </c>
+      <c r="B231">
+        <v>-522.91660000000002</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>109</v>
+      </c>
+      <c r="E231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>660.68209999999999</v>
+      </c>
+      <c r="B232">
+        <v>-522.57140000000004</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>658.11860000000001</v>
+      </c>
+      <c r="B233">
+        <v>-522.30309999999997</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>650.90210000000002</v>
+      </c>
+      <c r="B234">
+        <v>-521.22149999999999</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>646.41330000000005</v>
+      </c>
+      <c r="B235">
+        <v>-520.14779999999996</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>637.86440000000005</v>
+      </c>
+      <c r="B236">
+        <v>-517.32719999999995</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>633.803</v>
+      </c>
+      <c r="B237">
+        <v>-515.57920000000001</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>626.07010000000002</v>
+      </c>
+      <c r="B238">
+        <v>-511.46929999999998</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>242</v>
+      </c>
+      <c r="E238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>622.40070000000003</v>
+      </c>
+      <c r="B239">
+        <v>-509.1069</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>605.10940000000005</v>
+      </c>
+      <c r="B240">
+        <v>-496.03440000000001</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>594.06920000000002</v>
+      </c>
+      <c r="B241">
+        <v>-481.25830000000002</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>571.61980000000005</v>
+      </c>
+      <c r="B242">
+        <v>-439.97250000000003</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>561.69159999999999</v>
+      </c>
+      <c r="B243">
+        <v>-411.12880000000001</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>551.85540000000003</v>
+      </c>
+      <c r="B244">
+        <v>-382.1386</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>540.14139999999998</v>
+      </c>
+      <c r="B245">
+        <v>-374.82220000000001</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>528.42740000000003</v>
+      </c>
+      <c r="B246">
+        <v>-367.5059</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>516.71339999999998</v>
+      </c>
+      <c r="B247">
+        <v>-360.18950000000001</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>500.25279999999998</v>
+      </c>
+      <c r="B248">
+        <v>-353.25889999999998</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>483.79230000000001</v>
+      </c>
+      <c r="B249">
+        <v>-346.32830000000001</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>467.33170000000001</v>
+      </c>
+      <c r="B250">
+        <v>-339.39760000000001</v>
+      </c>
+      <c r="C250" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>1065.4195999999999</v>
-      </c>
-      <c r="D134" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>-796.72659999999996</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="D250">
+        <v>186</v>
+      </c>
+      <c r="E250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>452.55340000000001</v>
+      </c>
+      <c r="B251">
+        <v>-335.98989999999998</v>
+      </c>
+      <c r="C251" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>1089.5278000000001</v>
-      </c>
-      <c r="D135" t="s">
-        <v>2</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>-762.09860000000003</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="E251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>437.77499999999998</v>
+      </c>
+      <c r="B252">
+        <v>-332.5822</v>
+      </c>
+      <c r="C252" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>1131.454</v>
-      </c>
-      <c r="D136" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>-697.12559999999996</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="E252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>422.9966</v>
+      </c>
+      <c r="B253">
+        <v>-329.17450000000002</v>
+      </c>
+      <c r="C253" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>1173.3803</v>
-      </c>
-      <c r="D137" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>-632.15250000000003</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="E253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>308.42439999999999</v>
+      </c>
+      <c r="B254">
+        <v>-313.03820000000002</v>
+      </c>
+      <c r="C254" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>1215.3064999999999</v>
-      </c>
-      <c r="D138" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>-567.17939999999999</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="E254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>193.85210000000001</v>
+      </c>
+      <c r="B255">
+        <v>-296.90179999999998</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>79.279799999999994</v>
+      </c>
+      <c r="B256">
+        <v>-280.76549999999997</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>77.063199999999995</v>
+      </c>
+      <c r="B257">
+        <v>-272.46179999999998</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>74.846599999999995</v>
+      </c>
+      <c r="B258">
+        <v>-264.15820000000002</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>72.63</v>
+      </c>
+      <c r="B259">
+        <v>-255.8545</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>71.295100000000005</v>
+      </c>
+      <c r="B260">
+        <v>-245.0171</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>69.960300000000004</v>
+      </c>
+      <c r="B261">
+        <v>-234.17959999999999</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>68.625500000000002</v>
+      </c>
+      <c r="B262">
+        <v>-223.34219999999999</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>66.294399999999996</v>
+      </c>
+      <c r="B263">
+        <v>-200.7073</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>63.963299999999997</v>
+      </c>
+      <c r="B264">
+        <v>-178.07249999999999</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>61.632199999999997</v>
+      </c>
+      <c r="B265">
+        <v>-155.4376</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>60.374200000000002</v>
+      </c>
+      <c r="B266">
+        <v>-147.6114</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>59.116199999999999</v>
+      </c>
+      <c r="B267">
+        <v>-139.7851</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>57.858199999999997</v>
+      </c>
+      <c r="B268">
+        <v>-131.9589</v>
+      </c>
+      <c r="C268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>56.613799999999998</v>
+      </c>
+      <c r="B269">
+        <v>-126.9726</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>55.369300000000003</v>
+      </c>
+      <c r="B270">
+        <v>-121.9863</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>54.1248</v>
+      </c>
+      <c r="B271">
+        <v>-117</v>
+      </c>
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>51.563400000000001</v>
+      </c>
+      <c r="B272">
+        <v>-114.7186</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>49.001899999999999</v>
+      </c>
+      <c r="B273">
+        <v>-112.4372</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>46.4405</v>
+      </c>
+      <c r="B274">
+        <v>-110.1557</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>43.940399999999997</v>
+      </c>
+      <c r="B275">
+        <v>-109.80070000000001</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>41.440300000000001</v>
+      </c>
+      <c r="B276">
+        <v>-109.4456</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>38.940300000000001</v>
+      </c>
+      <c r="B277">
+        <v>-109.09050000000001</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>35.524799999999999</v>
+      </c>
+      <c r="B278">
+        <v>-111.0659</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>32.109299999999998</v>
+      </c>
+      <c r="B279">
+        <v>-113.0414</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>28.6938</v>
+      </c>
+      <c r="B280">
+        <v>-115.0168</v>
+      </c>
+      <c r="C280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>22.274100000000001</v>
+      </c>
+      <c r="B281">
+        <v>-122.3784</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>15.8544</v>
+      </c>
+      <c r="B282">
+        <v>-129.74</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>9.4346999999999994</v>
+      </c>
+      <c r="B283">
+        <v>-137.10149999999999</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>5.7961999999999998</v>
+      </c>
+      <c r="B284">
+        <v>-139.2312</v>
+      </c>
+      <c r="C284" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>1244.6284000000001</v>
-      </c>
-      <c r="D139" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>-520.80949999999996</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="E284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2.1576</v>
+      </c>
+      <c r="B285">
+        <v>-141.36089999999999</v>
+      </c>
+      <c r="C285" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1273.9502</v>
-      </c>
-      <c r="D140" t="s">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>-474.43959999999998</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="E285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>-1.4809000000000001</v>
+      </c>
+      <c r="B286">
+        <v>-143.4906</v>
+      </c>
+      <c r="C286" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>1303.2720999999999</v>
-      </c>
-      <c r="D141" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>-428.06959999999998</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="E286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>-5.8503999999999996</v>
+      </c>
+      <c r="B287">
+        <v>-143.36799999999999</v>
+      </c>
+      <c r="C287" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>1306.0244</v>
-      </c>
-      <c r="D142" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>-423.14100000000002</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="E287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>-10.219900000000001</v>
+      </c>
+      <c r="B288">
+        <v>-143.24539999999999</v>
+      </c>
+      <c r="C288" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>1308.7766999999999</v>
-      </c>
-      <c r="D143" t="s">
-        <v>2</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>-418.21249999999998</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="E288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>-14.5893</v>
+      </c>
+      <c r="B289">
+        <v>-143.12280000000001</v>
+      </c>
+      <c r="C289" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>1311.529</v>
-      </c>
-      <c r="D144" t="s">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>-413.28390000000002</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="E289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>-19.085699999999999</v>
+      </c>
+      <c r="B290">
+        <v>-141.36089999999999</v>
+      </c>
+      <c r="C290" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>1313.6999000000001</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>-408.28129999999999</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>-23.582000000000001</v>
+      </c>
+      <c r="B291">
+        <v>-139.59889999999999</v>
+      </c>
+      <c r="C291" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>1315.8707999999999</v>
-      </c>
-      <c r="D146" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>-403.27870000000001</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="E291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>-28.078299999999999</v>
+      </c>
+      <c r="B292">
+        <v>-137.83690000000001</v>
+      </c>
+      <c r="C292" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>1318.0417</v>
-      </c>
-      <c r="D147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>-398.27609999999999</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="E292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>-32.093400000000003</v>
+      </c>
+      <c r="B293">
+        <v>-136.1335</v>
+      </c>
+      <c r="C293" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>1321.8118999999999</v>
-      </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>-388.27800000000002</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="E293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>-36.108499999999999</v>
+      </c>
+      <c r="B294">
+        <v>-134.43010000000001</v>
+      </c>
+      <c r="C294" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>1325.5820000000001</v>
-      </c>
-      <c r="D149" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>-378.27980000000002</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="E294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>-40.123600000000003</v>
+      </c>
+      <c r="B295">
+        <v>-132.72669999999999</v>
+      </c>
+      <c r="C295" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>1329.3522</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>-368.28160000000003</v>
-      </c>
-      <c r="G150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>1332.2963</v>
-      </c>
-      <c r="D151" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>-359.78809999999999</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>1335.2405000000001</v>
-      </c>
-      <c r="D152" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>-351.29450000000003</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>1338.1847</v>
-      </c>
-      <c r="D153" t="s">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>-342.80090000000001</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>1339.9951000000001</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>-330.8374</v>
-      </c>
-      <c r="G154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>1341.8055999999999</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>-318.87389999999999</v>
-      </c>
-      <c r="G155" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1343.616</v>
-      </c>
-      <c r="D156" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>-306.91039999999998</v>
-      </c>
-      <c r="G156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>1343.9421</v>
-      </c>
-      <c r="D157" t="s">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>-301.68799999999999</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>1344.2683</v>
-      </c>
-      <c r="D158" t="s">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>-296.46550000000002</v>
-      </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>1344.5944</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>-291.24310000000003</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1342.9217000000001</v>
-      </c>
-      <c r="D160" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160">
-        <v>-286.91860000000003</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>1341.249</v>
-      </c>
-      <c r="D161" t="s">
-        <v>2</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>-282.59410000000003</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>1339.5762999999999</v>
-      </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1</v>
-      </c>
-      <c r="F162">
-        <v>-278.26960000000003</v>
-      </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>1330.7647999999999</v>
-      </c>
-      <c r="D163" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>-274.24770000000001</v>
-      </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>1321.9532999999999</v>
-      </c>
-      <c r="D164" t="s">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1</v>
-      </c>
-      <c r="F164">
-        <v>-270.22579999999999</v>
-      </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>1313.1416999999999</v>
-      </c>
-      <c r="D165" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1</v>
-      </c>
-      <c r="F165">
-        <v>-266.20389999999998</v>
-      </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>1309.4875999999999</v>
-      </c>
-      <c r="D166" t="s">
-        <v>2</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1</v>
-      </c>
-      <c r="F166">
-        <v>-262.28609999999998</v>
-      </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>1305.8334</v>
-      </c>
-      <c r="D167" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>-258.36829999999998</v>
-      </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>1302.1793</v>
-      </c>
-      <c r="D168" t="s">
-        <v>2</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1</v>
-      </c>
-      <c r="F168">
-        <v>-254.45050000000001</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>1301.8367000000001</v>
-      </c>
-      <c r="D169" t="s">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1</v>
-      </c>
-      <c r="F169">
-        <v>-246.45079999999999</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>1301.4940999999999</v>
-      </c>
-      <c r="D170" t="s">
-        <v>2</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>-238.4511</v>
-      </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>1301.1514999999999</v>
-      </c>
-      <c r="D171" t="s">
-        <v>2</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>-230.45150000000001</v>
-      </c>
-      <c r="G171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>1302.9007999999999</v>
-      </c>
-      <c r="D172" t="s">
-        <v>2</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>-216.2011</v>
-      </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>1304.6501000000001</v>
-      </c>
-      <c r="D173" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1</v>
-      </c>
-      <c r="F173">
-        <v>-201.95079999999999</v>
-      </c>
-      <c r="G173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>1306.3993</v>
-      </c>
-      <c r="D174" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F174">
-        <v>-187.7004</v>
-      </c>
-      <c r="G174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C175">
-        <v>1306.3993</v>
-      </c>
-      <c r="F175">
-        <v>-187.7004</v>
-      </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C176">
-        <v>1305.2058999999999</v>
-      </c>
-      <c r="F176">
-        <v>-182.1507</v>
-      </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C177">
-        <v>1304.0125</v>
-      </c>
-      <c r="F177">
-        <v>-176.601</v>
-      </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C178">
-        <v>1302.819</v>
-      </c>
-      <c r="F178">
-        <v>-171.0513</v>
-      </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C179">
-        <v>1283.1514</v>
-      </c>
-      <c r="F179">
-        <v>-166.95849999999999</v>
-      </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C180">
-        <v>1263.4837</v>
-      </c>
-      <c r="F180">
-        <v>-162.8657</v>
-      </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C181">
-        <v>1243.816</v>
-      </c>
-      <c r="F181">
-        <v>-158.77279999999999</v>
-      </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C182">
-        <v>1079.9593</v>
-      </c>
-      <c r="F182">
-        <v>-136.12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C183">
-        <v>916.10260000000005</v>
-      </c>
-      <c r="F183">
-        <v>-113.46720000000001</v>
-      </c>
-      <c r="G183" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C184">
-        <v>752.24590000000001</v>
-      </c>
-      <c r="F184">
-        <v>-90.814400000000006</v>
-      </c>
-      <c r="G184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C185">
-        <v>645.47469999999998</v>
-      </c>
-      <c r="F185">
-        <v>-79.470500000000001</v>
-      </c>
-      <c r="G185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C186">
-        <v>538.70339999999999</v>
-      </c>
-      <c r="F186">
-        <v>-68.126499999999993</v>
-      </c>
-      <c r="G186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C187">
-        <v>431.93220000000002</v>
-      </c>
-      <c r="F187">
-        <v>-56.782600000000002</v>
-      </c>
-      <c r="G187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C188">
-        <v>287.95479999999998</v>
-      </c>
-      <c r="F188">
-        <v>-37.854999999999997</v>
-      </c>
-      <c r="G188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C189">
-        <v>143.97739999999999</v>
-      </c>
-      <c r="F189">
-        <v>-18.927499999999998</v>
-      </c>
-      <c r="G189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C191">
+      <c r="E295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>-46.888500000000001</v>
+      </c>
+      <c r="B296">
+        <v>-131.63929999999999</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>-53.653399999999998</v>
+      </c>
+      <c r="B297">
+        <v>-130.55189999999999</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>-60.418399999999998</v>
+      </c>
+      <c r="B298">
+        <v>-129.46449999999999</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>-67.286600000000007</v>
+      </c>
+      <c r="B299">
+        <v>-128.61539999999999</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>-74.154899999999998</v>
+      </c>
+      <c r="B300">
+        <v>-127.7663</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>-81.023099999999999</v>
+      </c>
+      <c r="B301">
+        <v>-126.91719999999999</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>-89.5334</v>
+      </c>
+      <c r="B302">
+        <v>-126.0872</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>-98.043700000000001</v>
+      </c>
+      <c r="B303">
+        <v>-125.25709999999999</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>-106.554</v>
+      </c>
+      <c r="B304">
+        <v>-124.42700000000001</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>-110.0879</v>
+      </c>
+      <c r="B305">
+        <v>-122.5308</v>
+      </c>
+      <c r="C305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>-113.6217</v>
+      </c>
+      <c r="B306">
+        <v>-120.6345</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>-117.1555</v>
+      </c>
+      <c r="B307">
+        <v>-118.7383</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>-119.6802</v>
+      </c>
+      <c r="B308">
+        <v>-115.676</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>-122.20489999999999</v>
+      </c>
+      <c r="B309">
+        <v>-112.6138</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>-124.72969999999999</v>
+      </c>
+      <c r="B310">
+        <v>-109.5515</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>-124.331</v>
+      </c>
+      <c r="B311">
+        <v>-104.5621</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>-123.9323</v>
+      </c>
+      <c r="B312">
+        <v>-99.572599999999994</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>-123.5337</v>
+      </c>
+      <c r="B313">
+        <v>-94.583200000000005</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>-123.3331</v>
+      </c>
+      <c r="B314">
+        <v>-92.573099999999997</v>
+      </c>
+      <c r="C314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>-123.13249999999999</v>
+      </c>
+      <c r="B315">
+        <v>-90.563000000000002</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>-122.9319</v>
+      </c>
+      <c r="B316">
+        <v>-88.552800000000005</v>
+      </c>
+      <c r="C316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>-120.54559999999999</v>
+      </c>
+      <c r="B317">
+        <v>-84.113</v>
+      </c>
+      <c r="C317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>-118.1592</v>
+      </c>
+      <c r="B318">
+        <v>-79.673199999999994</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>-115.7728</v>
+      </c>
+      <c r="B319">
+        <v>-75.233400000000003</v>
+      </c>
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>-111.9211</v>
+      </c>
+      <c r="B320">
+        <v>-68.534700000000001</v>
+      </c>
+      <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>-108.0694</v>
+      </c>
+      <c r="B321">
+        <v>-61.836100000000002</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>-104.2178</v>
+      </c>
+      <c r="B322">
+        <v>-55.137500000000003</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>-96.170599999999993</v>
+      </c>
+      <c r="B323">
+        <v>-46.042999999999999</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>-88.123500000000007</v>
+      </c>
+      <c r="B324">
+        <v>-36.948599999999999</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>-80.076300000000003</v>
+      </c>
+      <c r="B325">
+        <v>-27.854099999999999</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>-71.563100000000006</v>
+      </c>
+      <c r="B326">
+        <v>-22.34</v>
+      </c>
+      <c r="C326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>-63.049900000000001</v>
+      </c>
+      <c r="B327">
+        <v>-16.825900000000001</v>
+      </c>
+      <c r="C327" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>-54.5366</v>
+      </c>
+      <c r="B328">
+        <v>-11.3117</v>
+      </c>
+      <c r="C328" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>-43.921500000000002</v>
+      </c>
+      <c r="B329">
+        <v>-7.4861000000000004</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>-33.3063</v>
+      </c>
+      <c r="B330">
+        <v>-3.6604999999999999</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>-22.691099999999999</v>
+      </c>
+      <c r="B331">
+        <v>0.1651</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>-15.1274</v>
+      </c>
+      <c r="B332">
+        <v>0.1101</v>
+      </c>
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>-7.5636999999999999</v>
       </c>
-      <c r="F191">
+      <c r="B333">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C192">
-        <v>-15.1274</v>
-      </c>
-      <c r="F192">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C193">
-        <v>-22.691099999999999</v>
-      </c>
-      <c r="F193">
-        <v>0.1651</v>
-      </c>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C194">
-        <v>-33.3063</v>
-      </c>
-      <c r="F194">
-        <v>-3.6604999999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C195">
-        <v>-43.921500000000002</v>
-      </c>
-      <c r="F195">
-        <v>-7.4861000000000004</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C196">
-        <v>-54.5366</v>
-      </c>
-      <c r="F196">
-        <v>-11.3117</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C197">
-        <v>-63.049900000000001</v>
-      </c>
-      <c r="F197">
-        <v>-16.825900000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C198">
-        <v>-71.563100000000006</v>
-      </c>
-      <c r="F198">
-        <v>-22.34</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C199">
-        <v>-80.076300000000003</v>
-      </c>
-      <c r="F199">
-        <v>-27.854099999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C200">
-        <v>-88.123500000000007</v>
-      </c>
-      <c r="F200">
-        <v>-36.948599999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C201">
-        <v>-96.170599999999993</v>
-      </c>
-      <c r="F201">
-        <v>-46.042999999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C202">
-        <v>-104.2178</v>
-      </c>
-      <c r="F202">
-        <v>-55.137500000000003</v>
-      </c>
-    </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C203">
-        <v>-108.0694</v>
-      </c>
-      <c r="F203">
-        <v>-61.836100000000002</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C204">
-        <v>-111.9211</v>
-      </c>
-      <c r="F204">
-        <v>-68.534700000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C205">
-        <v>-115.7728</v>
-      </c>
-      <c r="F205">
-        <v>-75.233400000000003</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C206">
-        <v>-118.1592</v>
-      </c>
-      <c r="F206">
-        <v>-79.673199999999994</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C207">
-        <v>-120.54559999999999</v>
-      </c>
-      <c r="F207">
-        <v>-84.113</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C208">
-        <v>-122.9319</v>
-      </c>
-      <c r="F208">
-        <v>-88.552800000000005</v>
-      </c>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C209">
-        <v>-123.13249999999999</v>
-      </c>
-      <c r="F209">
-        <v>-90.563000000000002</v>
-      </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C210">
-        <v>-123.3331</v>
-      </c>
-      <c r="F210">
-        <v>-92.573099999999997</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C211">
-        <v>-123.5337</v>
-      </c>
-      <c r="F211">
-        <v>-94.583200000000005</v>
-      </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C212">
-        <v>-123.9323</v>
-      </c>
-      <c r="F212">
-        <v>-99.572599999999994</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C213">
-        <v>-124.331</v>
-      </c>
-      <c r="F213">
-        <v>-104.5621</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C214">
-        <v>-124.72969999999999</v>
-      </c>
-      <c r="F214">
-        <v>-109.5515</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C215">
-        <v>-122.20489999999999</v>
-      </c>
-      <c r="F215">
-        <v>-112.6138</v>
-      </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C216">
-        <v>-119.6802</v>
-      </c>
-      <c r="F216">
-        <v>-115.676</v>
-      </c>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C217">
-        <v>-117.1555</v>
-      </c>
-      <c r="F217">
-        <v>-118.7383</v>
-      </c>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C218">
-        <v>-113.6217</v>
-      </c>
-      <c r="F218">
-        <v>-120.6345</v>
-      </c>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C219">
-        <v>-110.0879</v>
-      </c>
-      <c r="F219">
-        <v>-122.5308</v>
-      </c>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C220">
-        <v>-106.554</v>
-      </c>
-      <c r="F220">
-        <v>-124.42700000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C221">
-        <v>-98.043700000000001</v>
-      </c>
-      <c r="F221">
-        <v>-125.25709999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C222">
-        <v>-89.5334</v>
-      </c>
-      <c r="F222">
-        <v>-126.0872</v>
-      </c>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C223">
-        <v>-81.023099999999999</v>
-      </c>
-      <c r="F223">
-        <v>-126.91719999999999</v>
-      </c>
-    </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C224">
-        <v>-74.154899999999998</v>
-      </c>
-      <c r="F224">
-        <v>-127.7663</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C225">
-        <v>-67.286600000000007</v>
-      </c>
-      <c r="F225">
-        <v>-128.61539999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C226">
-        <v>-60.418399999999998</v>
-      </c>
-      <c r="F226">
-        <v>-129.46449999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C227">
-        <v>-53.653399999999998</v>
-      </c>
-      <c r="F227">
-        <v>-130.55189999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C228">
-        <v>-46.888500000000001</v>
-      </c>
-      <c r="F228">
-        <v>-131.63929999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C229">
-        <v>-40.123600000000003</v>
-      </c>
-      <c r="F229">
-        <v>-132.72669999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C230">
-        <v>-36.108499999999999</v>
-      </c>
-      <c r="F230">
-        <v>-134.43010000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C231">
-        <v>-32.093400000000003</v>
-      </c>
-      <c r="F231">
-        <v>-136.1335</v>
-      </c>
-    </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C232">
-        <v>-28.078299999999999</v>
-      </c>
-      <c r="F232">
-        <v>-137.83690000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C233">
-        <v>-23.582000000000001</v>
-      </c>
-      <c r="F233">
-        <v>-139.59889999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C234">
-        <v>-19.085699999999999</v>
-      </c>
-      <c r="F234">
-        <v>-141.36089999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C235">
-        <v>-14.5893</v>
-      </c>
-      <c r="F235">
-        <v>-143.12280000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C236">
-        <v>-10.219900000000001</v>
-      </c>
-      <c r="F236">
-        <v>-143.24539999999999</v>
-      </c>
-    </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C237">
-        <v>-5.8503999999999996</v>
-      </c>
-      <c r="F237">
-        <v>-143.36799999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C238">
-        <v>-1.4809000000000001</v>
-      </c>
-      <c r="F238">
-        <v>-143.4906</v>
-      </c>
-    </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C239">
-        <v>2.1576</v>
-      </c>
-      <c r="F239">
-        <v>-141.36089999999999</v>
-      </c>
-    </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C240">
-        <v>5.7961999999999998</v>
-      </c>
-      <c r="F240">
-        <v>-139.2312</v>
-      </c>
-    </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C241">
-        <v>9.4346999999999994</v>
-      </c>
-      <c r="F241">
-        <v>-137.10149999999999</v>
-      </c>
-    </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C242">
-        <v>15.8544</v>
-      </c>
-      <c r="F242">
-        <v>-129.74</v>
-      </c>
-    </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C243">
-        <v>22.274100000000001</v>
-      </c>
-      <c r="F243">
-        <v>-122.3784</v>
-      </c>
-    </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C244">
-        <v>28.6938</v>
-      </c>
-      <c r="F244">
-        <v>-115.0168</v>
-      </c>
-    </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C245">
-        <v>32.109299999999998</v>
-      </c>
-      <c r="F245">
-        <v>-113.0414</v>
-      </c>
-    </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C246">
-        <v>35.524799999999999</v>
-      </c>
-      <c r="F246">
-        <v>-111.0659</v>
-      </c>
-    </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C247">
-        <v>38.940300000000001</v>
-      </c>
-      <c r="F247">
-        <v>-109.09050000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C248">
-        <v>41.440300000000001</v>
-      </c>
-      <c r="F248">
-        <v>-109.4456</v>
-      </c>
-    </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C249">
-        <v>43.940399999999997</v>
-      </c>
-      <c r="F249">
-        <v>-109.80070000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C250">
-        <v>46.4405</v>
-      </c>
-      <c r="F250">
-        <v>-110.1557</v>
-      </c>
-    </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C251">
-        <v>49.001899999999999</v>
-      </c>
-      <c r="F251">
-        <v>-112.4372</v>
-      </c>
-    </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C252">
-        <v>51.563400000000001</v>
-      </c>
-      <c r="F252">
-        <v>-114.7186</v>
-      </c>
-    </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C253">
-        <v>54.1248</v>
-      </c>
-      <c r="F253">
-        <v>-117</v>
-      </c>
-    </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C254">
-        <v>55.369300000000003</v>
-      </c>
-      <c r="F254">
-        <v>-121.9863</v>
-      </c>
-    </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C255">
-        <v>56.613799999999998</v>
-      </c>
-      <c r="F255">
-        <v>-126.9726</v>
-      </c>
-    </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C256">
-        <v>57.858199999999997</v>
-      </c>
-      <c r="F256">
-        <v>-131.9589</v>
-      </c>
-    </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C257">
-        <v>59.116199999999999</v>
-      </c>
-      <c r="F257">
-        <v>-139.7851</v>
-      </c>
-    </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C258">
-        <v>60.374200000000002</v>
-      </c>
-      <c r="F258">
-        <v>-147.6114</v>
-      </c>
-    </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C259">
-        <v>61.632199999999997</v>
-      </c>
-      <c r="F259">
-        <v>-155.4376</v>
-      </c>
-    </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C260">
-        <v>63.963299999999997</v>
-      </c>
-      <c r="F260">
-        <v>-178.07249999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C261">
-        <v>66.294399999999996</v>
-      </c>
-      <c r="F261">
-        <v>-200.7073</v>
-      </c>
-    </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C262">
-        <v>68.625500000000002</v>
-      </c>
-      <c r="F262">
-        <v>-223.34219999999999</v>
-      </c>
-    </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C263">
-        <v>69.960300000000004</v>
-      </c>
-      <c r="F263">
-        <v>-234.17959999999999</v>
-      </c>
-    </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C264">
-        <v>71.295100000000005</v>
-      </c>
-      <c r="F264">
-        <v>-245.0171</v>
-      </c>
-    </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C265">
-        <v>72.63</v>
-      </c>
-      <c r="F265">
-        <v>-255.8545</v>
-      </c>
-    </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C266">
-        <v>74.846599999999995</v>
-      </c>
-      <c r="F266">
-        <v>-264.15820000000002</v>
-      </c>
-    </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C267">
-        <v>77.063199999999995</v>
-      </c>
-      <c r="F267">
-        <v>-272.46179999999998</v>
-      </c>
-    </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C268">
-        <v>79.279799999999994</v>
-      </c>
-      <c r="F268">
-        <v>-280.76549999999997</v>
-      </c>
-    </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C269">
-        <v>193.85210000000001</v>
-      </c>
-      <c r="F269">
-        <v>-296.90179999999998</v>
-      </c>
-    </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C270">
-        <v>308.42439999999999</v>
-      </c>
-      <c r="F270">
-        <v>-313.03820000000002</v>
-      </c>
-    </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C271">
-        <v>422.9966</v>
-      </c>
-      <c r="F271">
-        <v>-329.17450000000002</v>
-      </c>
-    </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C272">
-        <v>437.77499999999998</v>
-      </c>
-      <c r="F272">
-        <v>-332.5822</v>
-      </c>
-    </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C273">
-        <v>452.55340000000001</v>
-      </c>
-      <c r="F273">
-        <v>-335.98989999999998</v>
-      </c>
-    </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C274">
-        <v>467.33170000000001</v>
-      </c>
-      <c r="F274">
-        <v>-339.39760000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C275">
-        <v>483.79230000000001</v>
-      </c>
-      <c r="F275">
-        <v>-346.32830000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C276">
-        <v>500.25279999999998</v>
-      </c>
-      <c r="F276">
-        <v>-353.25889999999998</v>
-      </c>
-    </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C277">
-        <v>516.71339999999998</v>
-      </c>
-      <c r="F277">
-        <v>-360.18950000000001</v>
-      </c>
-    </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C278">
-        <v>528.42740000000003</v>
-      </c>
-      <c r="F278">
-        <v>-367.5059</v>
-      </c>
-    </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C279">
-        <v>540.14139999999998</v>
-      </c>
-      <c r="F279">
-        <v>-374.82220000000001</v>
-      </c>
-    </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C280">
-        <v>551.85540000000003</v>
-      </c>
-      <c r="F280">
-        <v>-382.1386</v>
-      </c>
-    </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C281">
-        <v>561.69159999999999</v>
-      </c>
-      <c r="F281">
-        <v>-411.12880000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C282">
-        <v>571.61980000000005</v>
-      </c>
-      <c r="F282">
-        <v>-439.97250000000003</v>
-      </c>
-    </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C283">
-        <v>594.06920000000002</v>
-      </c>
-      <c r="F283">
-        <v>-481.25830000000002</v>
-      </c>
-    </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C284">
-        <v>605.10940000000005</v>
-      </c>
-      <c r="F284">
-        <v>-496.03440000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C285">
-        <v>622.40070000000003</v>
-      </c>
-      <c r="F285">
-        <v>-509.1069</v>
-      </c>
-    </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C286">
-        <v>626.07010000000002</v>
-      </c>
-      <c r="F286">
-        <v>-511.46929999999998</v>
-      </c>
-    </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C287">
-        <v>633.803</v>
-      </c>
-      <c r="F287">
-        <v>-515.57920000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C288">
-        <v>637.86440000000005</v>
-      </c>
-      <c r="F288">
-        <v>-517.32719999999995</v>
-      </c>
-    </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C289">
-        <v>646.41330000000005</v>
-      </c>
-      <c r="F289">
-        <v>-520.14779999999996</v>
-      </c>
-    </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C290">
-        <v>650.90210000000002</v>
-      </c>
-      <c r="F290">
-        <v>-521.22149999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C291">
-        <v>658.11860000000001</v>
-      </c>
-      <c r="F291">
-        <v>-522.30309999999997</v>
-      </c>
-    </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C292">
-        <v>660.68209999999999</v>
-      </c>
-      <c r="F292">
-        <v>-522.57140000000004</v>
-      </c>
-    </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C293">
-        <v>665.92729999999995</v>
-      </c>
-      <c r="F293">
-        <v>-522.91660000000002</v>
-      </c>
-    </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C294">
-        <v>668.60659999999996</v>
-      </c>
-      <c r="F294">
-        <v>-522.99609999999996</v>
-      </c>
-    </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C295">
-        <v>674.04520000000002</v>
-      </c>
-      <c r="F295">
-        <v>-523.01210000000003</v>
-      </c>
-    </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C296">
-        <v>676.803</v>
-      </c>
-      <c r="F296">
-        <v>-522.94849999999997</v>
-      </c>
-    </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C297">
-        <v>687.95950000000005</v>
-      </c>
-      <c r="F297">
-        <v>-522.48919999999998</v>
-      </c>
-    </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C298">
-        <v>696.53909999999996</v>
-      </c>
-      <c r="F298">
-        <v>-521.68589999999995</v>
-      </c>
-    </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C299">
-        <v>709.58349999999996</v>
-      </c>
-      <c r="F299">
-        <v>-520.61540000000002</v>
-      </c>
-    </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C300">
-        <v>714.23050000000001</v>
-      </c>
-      <c r="F300">
-        <v>-520.26509999999996</v>
-      </c>
-    </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C301">
-        <v>722.36120000000005</v>
-      </c>
-      <c r="F301">
-        <v>-519.89769999999999</v>
-      </c>
-    </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C302">
-        <v>725.89390000000003</v>
-      </c>
-      <c r="F302">
-        <v>-519.83079999999995</v>
-      </c>
-    </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C303">
-        <v>731.29459999999995</v>
-      </c>
-      <c r="F303">
-        <v>-519.97349999999994</v>
-      </c>
-    </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C304">
-        <v>733.26660000000004</v>
-      </c>
-      <c r="F304">
-        <v>-520.08479999999997</v>
-      </c>
-    </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C305">
-        <v>737.0634</v>
-      </c>
-      <c r="F305">
-        <v>-520.44629999999995</v>
-      </c>
-    </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C306">
-        <v>738.89440000000002</v>
-      </c>
-      <c r="F306">
-        <v>-520.69719999999995</v>
-      </c>
-    </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C307">
-        <v>741.94309999999996</v>
-      </c>
-      <c r="F307">
-        <v>-521.27909999999997</v>
-      </c>
-    </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C308">
-        <v>743.20050000000003</v>
-      </c>
-      <c r="F308">
-        <v>-521.57320000000004</v>
-      </c>
-    </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C309">
-        <v>745.62199999999996</v>
-      </c>
-      <c r="F309">
-        <v>-522.26679999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C310">
-        <v>746.77850000000001</v>
-      </c>
-      <c r="F310">
-        <v>-522.66390000000001</v>
-      </c>
-    </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C311">
-        <v>749.49540000000002</v>
-      </c>
-      <c r="F311">
-        <v>-523.78060000000005</v>
-      </c>
-    </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C312">
-        <v>750.99710000000005</v>
-      </c>
-      <c r="F312">
-        <v>-524.56690000000003</v>
-      </c>
-    </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C313">
-        <v>752.91880000000003</v>
-      </c>
-      <c r="F313">
-        <v>-525.86059999999998</v>
-      </c>
-    </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C314">
-        <v>753.45579999999995</v>
-      </c>
-      <c r="F314">
-        <v>-526.2595</v>
-      </c>
-    </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C315">
-        <v>754.44820000000004</v>
-      </c>
-      <c r="F315">
-        <v>-527.07259999999997</v>
-      </c>
-    </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C316">
-        <v>754.9085</v>
-      </c>
-      <c r="F316">
-        <v>-527.4846</v>
-      </c>
-    </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C317">
-        <v>755.79949999999997</v>
-      </c>
-      <c r="F317">
-        <v>-528.35429999999997</v>
-      </c>
-    </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C318">
-        <v>756.22749999999996</v>
-      </c>
-      <c r="F318">
-        <v>-528.80999999999995</v>
-      </c>
-    </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C319">
-        <v>757.21609999999998</v>
-      </c>
-      <c r="F319">
-        <v>-529.95569999999998</v>
-      </c>
-    </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C320">
-        <v>757.75599999999997</v>
-      </c>
-      <c r="F320">
-        <v>-530.66110000000003</v>
-      </c>
-    </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C321">
-        <v>758.7722</v>
-      </c>
-      <c r="F321">
-        <v>-532.15189999999996</v>
-      </c>
-    </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C322">
-        <v>759.24559999999997</v>
-      </c>
-      <c r="F322">
-        <v>-532.93420000000003</v>
-      </c>
-    </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C323">
-        <v>760.48040000000003</v>
-      </c>
-      <c r="F323">
-        <v>-535.22850000000005</v>
-      </c>
-    </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C324">
-        <v>761.16669999999999</v>
-      </c>
-      <c r="F324">
-        <v>-536.82380000000001</v>
-      </c>
-    </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C325">
-        <v>762.2269</v>
-      </c>
-      <c r="F325">
-        <v>-539.90920000000006</v>
-      </c>
-    </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C326">
-        <v>762.63639999999998</v>
-      </c>
-      <c r="F326">
-        <v>-541.36850000000004</v>
-      </c>
-    </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C327">
-        <v>763.51639999999998</v>
-      </c>
-      <c r="F327">
-        <v>-545.26220000000001</v>
-      </c>
-    </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C328">
-        <v>763.89409999999998</v>
-      </c>
-      <c r="F328">
-        <v>-547.77549999999997</v>
-      </c>
-    </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C329">
-        <v>764.32849999999996</v>
-      </c>
-      <c r="F329">
-        <v>-552.56719999999996</v>
-      </c>
-    </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C330">
-        <v>764.43150000000003</v>
-      </c>
-      <c r="F330">
-        <v>-554.79629999999997</v>
-      </c>
-    </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C331">
-        <v>764.47339999999997</v>
-      </c>
-      <c r="F331">
-        <v>-559.40440000000001</v>
-      </c>
-    </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C332">
-        <v>764.41269999999997</v>
-      </c>
-      <c r="F332">
-        <v>-561.78620000000001</v>
-      </c>
-    </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C333">
-        <v>764.06299999999999</v>
-      </c>
-      <c r="F333">
-        <v>-568.16229999999996</v>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
